--- a/relatorio_up.xlsx
+++ b/relatorio_up.xlsx
@@ -15,9 +15,23 @@
   <definedNames>
     <definedName name="Slicer_maps">#N/A</definedName>
     <definedName name="Slicer_time_interval">#N/A</definedName>
+    <definedName name="Slicer_maps1">#N/A</definedName>
+    <definedName name="Slicer_date">#N/A</definedName>
+    <definedName name="Slicer_time_interval2">#N/A</definedName>
+    <definedName name="Slicer_maps3">#N/A</definedName>
+    <definedName name="Slicer_time_interval4">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId5"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -799,7 +813,39 @@
     <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="27">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="58" formatCode="dd/mm/yyyy"/>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="58" formatCode="dd/mm/yyyy"/>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -993,25 +1039,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstRowStripe" dxfId="24"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="22"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="21"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="20"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="19"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="18"/>
+      <tableStyleElement type="pageFieldValues" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1162,10 +1208,10 @@
             <c:multiLvlStrRef>
               <c:f>Dados_Interval_Mean!$A$2:$B$34</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>08:00–10:00</c:v>
+                    <c:v>00:00–02:00</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>04:00–06:00</c:v>
@@ -1180,189 +1226,27 @@
                     <c:v>10:00–12:00</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>16:00–18:00</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>02:00–04:00</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>08:00–10:00</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>14:00–16:00</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>00:00–02:00</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>04:00–06:00</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>06:00–08:00</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>10:00–12:00</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>00:00–02:00</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>04:00–06:00</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>08:00–10:00</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>06:00–08:00</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>08:00–10:00</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>10:00–12:00</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>12:00–14:00</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>14:00–16:00</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>00:00–02:00</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>04:00–06:00</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>06:00–08:00</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>08:00–10:00</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>10:00–12:00</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>12:00–14:00</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>00:00–02:00</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>04:00–06:00</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>06:00–08:00</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>08:00–10:00</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>10:00–12:00</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
                     <c:v>12:00–14:00</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Desert Saara 2</c:v>
+                    <c:v>S4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Highlander</c:v>
+                    <c:v>S4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Highlander</c:v>
+                    <c:v>S4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Highlander</c:v>
+                    <c:v>S4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Highlander</c:v>
+                    <c:v>S4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Highlander</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Kruma</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Kruma</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Kruma</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Outros</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Outros</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Outros</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Outros</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>S1</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>S1</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>S1</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>S2</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>S2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>S2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>S2</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>S2</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
                     <c:v>S4</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>S4</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>S4</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>S4</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>S4</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>S4</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>Venatus</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>Venatus</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>Venatus</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>Venatus</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>Venatus</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Venatus</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1373,105 +1257,24 @@
               <c:f>Dados_Interval_Mean!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,106 +1643,16 @@
             <c:multiLvlStrRef>
               <c:f>Dados_Daily_Mean!$A$2:$C$34</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>08:00–10:00</c:v>
+                    <c:v>00:00–02:00</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>04:00–06:00</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>06:00–08:00</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
                     <c:v>08:00–10:00</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10:00–12:00</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>16:00–18:00</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>02:00–04:00</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>08:00–10:00</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>14:00–16:00</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>00:00–02:00</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>04:00–06:00</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>06:00–08:00</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>10:00–12:00</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>00:00–02:00</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>04:00–06:00</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>08:00–10:00</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>06:00–08:00</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>08:00–10:00</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>10:00–12:00</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>12:00–14:00</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>14:00–16:00</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>00:00–02:00</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>04:00–06:00</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>06:00–08:00</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>08:00–10:00</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>10:00–12:00</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>12:00–14:00</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>00:00–02:00</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>04:00–06:00</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>06:00–08:00</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>08:00–10:00</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>10:00–12:00</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>12:00–14:00</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1952,196 +1665,16 @@
                   <c:pt idx="2" c:formatCode="dd/mm/yyyy">
                     <c:v>10/02/2023</c:v>
                   </c:pt>
-                  <c:pt idx="3" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="4" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="5" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="6" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="7" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="8" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="9" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="10" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="11" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="12" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="13" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="14" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="15" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="16" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="17" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="18" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="19" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="20" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="21" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="22" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="23" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="24" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="25" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="26" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="27" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="28" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="29" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="30" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="31" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
-                  <c:pt idx="32" c:formatCode="dd/mm/yyyy">
-                    <c:v>10/02/2023</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Desert Saara 2</c:v>
+                    <c:v>S1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Highlander</c:v>
+                    <c:v>S1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Highlander</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Highlander</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Highlander</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Highlander</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Kruma</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Kruma</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Kruma</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Outros</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Outros</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Outros</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Outros</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
                     <c:v>S1</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>S1</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>S1</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>S2</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>S2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>S2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>S2</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>S2</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>S4</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>S4</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>S4</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>S4</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>S4</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>S4</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>Venatus</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>Venatus</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>Venatus</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>Venatus</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>Venatus</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Venatus</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2152,105 +1685,15 @@
               <c:f>Dados_Daily_Mean!$D$2:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>39.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3751,7 +3194,476 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243205</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243205</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame>
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="maps"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="maps"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6339205" y="4498340"/>
+              <a:ext cx="1828800" cy="2388870"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr sz="1100"/>
+                <a:t>Esta forma representa um Slicer.
+Os Slicers não podem ser usados nesta versão, atualize para a versão mais recente do WPS Office.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>366395</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>366395</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame>
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="time_interval"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="time_interval"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8291195" y="4500880"/>
+              <a:ext cx="1828800" cy="2390140"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr sz="1100"/>
+                <a:t>Esta forma representa um Slicer.
+Os Slicers não podem ser usados nesta versão, atualize para a versão mais recente do WPS Office.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>440690</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>440690</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame>
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="date"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="date"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10194290" y="4486910"/>
+              <a:ext cx="1828800" cy="2388870"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr sz="1100"/>
+                <a:t>Esta forma representa um Slicer.
+Os Slicers não podem ser usados nesta versão, atualize para a versão mais recente do WPS Office.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>494030</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>494030</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame>
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="maps 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="maps 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1103630" y="4552950"/>
+              <a:ext cx="1828800" cy="2388870"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr sz="1100"/>
+                <a:t>Esta forma representa um Slicer.
+Os Slicers não podem ser usados nesta versão, atualize para a versão mais recente do WPS Office.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame>
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="time_interval 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="time_interval 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3086100" y="4544695"/>
+              <a:ext cx="1828800" cy="2388870"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr sz="1100"/>
+                <a:t>Esta forma representa um Slicer.
+Os Slicers não podem ser usados nesta versão, atualize para a versão mais recente do WPS Office.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_maps1" sourceName="maps">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="1"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_date" sourceName="date">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_time_interval2" sourceName="time_interval">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_maps3" sourceName="maps">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="1"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_time_interval4" sourceName="time_interval">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="maps" cache="Slicer_maps1" caption="maps" rowHeight="193675"/>
+  <slicer name="time_interval" cache="Slicer_time_interval2" caption="time_interval" rowHeight="193675"/>
+  <slicer name="date" cache="Slicer_date" caption="date" rowHeight="193675"/>
+  <slicer name="maps 1" cache="Slicer_maps3" caption="maps" rowHeight="193675"/>
+  <slicer name="time_interval 2" cache="Slicer_time_interval4" caption="time_interval" rowHeight="193675"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D34" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D34" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="S1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="maps" dataDxfId="0"/>
+    <tableColumn id="2" name="date" dataDxfId="1"/>
+    <tableColumn id="3" name="time_interval" dataDxfId="2"/>
+    <tableColumn id="4" name="avg_total_lvls_up" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:C34" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C34" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="S4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="maps" dataDxfId="4"/>
+    <tableColumn id="2" name="time_interval" dataDxfId="5"/>
+    <tableColumn id="3" name="avg_total_lvls_up" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:C9" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C9" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="date" dataDxfId="7"/>
+    <tableColumn id="2" name="maps" dataDxfId="8"/>
+    <tableColumn id="3" name="amount_players" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4015,7 +3927,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -4023,6 +3935,13 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4032,7 +3951,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -4056,7 +3975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" hidden="1" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4070,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" hidden="1" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4084,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" hidden="1" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4098,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" hidden="1" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4112,7 +4031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" hidden="1" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4126,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" hidden="1" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4140,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" hidden="1" spans="1:4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4154,7 +4073,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" hidden="1" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4168,7 +4087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" hidden="1" spans="1:4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4182,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" hidden="1" spans="1:4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -4196,7 +4115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" hidden="1" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4210,7 +4129,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" hidden="1" spans="1:4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -4224,7 +4143,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" hidden="1" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4280,7 +4199,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" hidden="1" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4294,7 +4213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" hidden="1" spans="1:4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4308,7 +4227,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" hidden="1" spans="1:4">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4322,7 +4241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" hidden="1" spans="1:4">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -4336,7 +4255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" hidden="1" spans="1:4">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4350,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" hidden="1" spans="1:4">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4364,7 +4283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" hidden="1" spans="1:4">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -4378,7 +4297,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" hidden="1" spans="1:4">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4392,7 +4311,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" hidden="1" spans="1:4">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4406,7 +4325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" hidden="1" spans="1:4">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -4420,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" hidden="1" spans="1:4">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -4434,7 +4353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" hidden="1" spans="1:4">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -4448,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" hidden="1" spans="1:4">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -4462,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" hidden="1" spans="1:4">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -4476,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" hidden="1" spans="1:4">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -4490,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" hidden="1" spans="1:4">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -4504,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" hidden="1" spans="1:4">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -4521,6 +4440,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4530,7 +4452,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A1" sqref="A1:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -4546,7 +4468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" hidden="1" spans="1:3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4557,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" hidden="1" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4568,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" hidden="1" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4579,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" hidden="1" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4590,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" hidden="1" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4601,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" hidden="1" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4612,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" hidden="1" spans="1:3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4623,7 +4545,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" hidden="1" spans="1:3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4634,7 +4556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" hidden="1" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4645,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" hidden="1" spans="1:3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -4656,7 +4578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" hidden="1" spans="1:3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4667,7 +4589,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" hidden="1" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -4678,7 +4600,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" hidden="1" spans="1:3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4689,7 +4611,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" hidden="1" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -4700,7 +4622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" hidden="1" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -4711,7 +4633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" hidden="1" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4722,7 +4644,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" hidden="1" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4733,7 +4655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" hidden="1" spans="1:3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4744,7 +4666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" hidden="1" spans="1:3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4755,7 +4677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" hidden="1" spans="1:3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -4766,7 +4688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" hidden="1" spans="1:3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4843,7 +4765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" hidden="1" spans="1:3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -4854,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" hidden="1" spans="1:3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -4865,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" hidden="1" spans="1:3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -4876,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" hidden="1" spans="1:3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -4887,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" hidden="1" spans="1:3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -4898,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" hidden="1" spans="1:3">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -4912,6 +4834,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4921,10 +4846,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="11.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -5028,5 +4956,8 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>